--- a/数据源/大屏数据测试.xlsx
+++ b/数据源/大屏数据测试.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\test\数据源\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\BigScreen\bigScreen\数据源\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A74BE8-28A6-4DCC-98F6-96CBEE835528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07008289-96B7-4670-BBA8-0BDA0680046A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="14">
   <si>
     <t>区县</t>
   </si>
@@ -57,103 +57,17 @@
     <t>其他备注</t>
   </si>
   <si>
-    <t>安宁</t>
-  </si>
-  <si>
-    <t>安宁和商务网格</t>
-  </si>
-  <si>
-    <t>安宁羊角社区</t>
-  </si>
-  <si>
-    <t>温泉街道办责任区</t>
-  </si>
-  <si>
-    <t>熊康富</t>
-  </si>
-  <si>
     <t>正常宽带在用</t>
   </si>
   <si>
     <t>无</t>
   </si>
   <si>
-    <t>安宁宝兴庄1</t>
-  </si>
-  <si>
-    <t>新发片区责任区</t>
-  </si>
-  <si>
-    <t>侯林东</t>
-  </si>
-  <si>
-    <t>安宁工业小区组团三（黉学路25-30号）</t>
-  </si>
-  <si>
-    <t>东湖片区责任区</t>
-  </si>
-  <si>
-    <t>王卫富</t>
-  </si>
-  <si>
-    <t>安宁东湖小区组团二（5-7栋）</t>
-  </si>
-  <si>
-    <t>金方馨苑片区责任区</t>
-  </si>
-  <si>
-    <t>唐文涛</t>
-  </si>
-  <si>
-    <t>安宁伊皇郡园组团一（B区）</t>
-  </si>
-  <si>
-    <t>ad7o87a7ss6</t>
-  </si>
-  <si>
-    <t>a8so68sdf9o</t>
-  </si>
-  <si>
-    <t>ag9sgao8f7g</t>
-  </si>
-  <si>
-    <t>adgs9d6gf69</t>
-  </si>
-  <si>
-    <t>a9987a889s9</t>
-  </si>
-  <si>
-    <t>a8f87assg78</t>
-  </si>
-  <si>
-    <t>adg77os8goo</t>
-  </si>
-  <si>
-    <t>安宁</t>
+    <t>test1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>安宁1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>安宁和商务网格2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>安宁和商务网格1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a8f87assg781</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adg77os8goo1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a9987a889s91</t>
+    <t>test2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -161,10 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-  </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,36 +124,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -255,7 +136,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,18 +146,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -310,7 +179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -327,31 +196,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -638,7 +489,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -685,317 +536,317 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>11</v>
+      <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="7">
+        <v>4</v>
+      </c>
+      <c r="I2" s="7">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="12">
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7">
+        <v>6</v>
+      </c>
+      <c r="I3" s="7">
+        <v>10</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7">
+        <v>10</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7">
         <v>4</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I9" s="7">
         <v>5</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="12">
-        <v>6</v>
-      </c>
-      <c r="I3" s="12">
-        <v>10</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="12">
-        <v>7</v>
-      </c>
-      <c r="I4" s="12">
-        <v>8</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="12">
-        <v>10</v>
-      </c>
-      <c r="I5" s="12">
-        <v>10</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="12">
-        <v>10</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="J9" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>9</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="12">
-        <v>3</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="12">
-        <v>4</v>
-      </c>
-      <c r="I9" s="12">
-        <v>5</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="12">
-        <v>5</v>
-      </c>
-      <c r="I10" s="12">
-        <v>9</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="12">
+      <c r="I11" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="12">
-        <v>1</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>16</v>
+      <c r="J11" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
